--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.7748363449812183</v>
+        <v>-1.157645537839379</v>
       </c>
       <c r="D2">
-        <v>0.4385454732681948</v>
+        <v>0.2594229912477282</v>
       </c>
       <c r="E2">
         <v>5.482618450889306</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.3510863947253987</v>
+        <v>0.344936218188253</v>
       </c>
       <c r="D3">
-        <v>0.7255675821744783</v>
+        <v>0.7334182632280042</v>
       </c>
       <c r="E3">
         <v>5.482618450889306</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.4032154862815112</v>
+        <v>0.4346158584302625</v>
       </c>
       <c r="D4">
-        <v>0.686841047304505</v>
+        <v>0.6680745087073683</v>
       </c>
       <c r="E4">
         <v>5.482618450889306</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.8623254201716331</v>
+        <v>0.9180471910989026</v>
       </c>
       <c r="D5">
-        <v>0.3886316137526293</v>
+        <v>0.3685499601385649</v>
       </c>
       <c r="E5">
         <v>5.482618450889306</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.122191730080308</v>
+        <v>1.32462201449687</v>
       </c>
       <c r="D6">
-        <v>0.2619413810755886</v>
+        <v>0.1988926119763745</v>
       </c>
       <c r="E6">
         <v>5.809986364360143</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.9142170108244674</v>
+        <v>1.236481384496879</v>
       </c>
       <c r="D7">
-        <v>0.3607340932478986</v>
+        <v>0.2293181007223457</v>
       </c>
       <c r="E7">
         <v>5.809986364360143</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.229776511513644</v>
+        <v>1.591433687749416</v>
       </c>
       <c r="D8">
-        <v>0.2189530976683991</v>
+        <v>0.1257800612360589</v>
       </c>
       <c r="E8">
         <v>5.809986364360143</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.0265791008983965</v>
+        <v>0.02221119352114896</v>
       </c>
       <c r="D9">
-        <v>0.9787986010081036</v>
+        <v>0.982479715355711</v>
       </c>
       <c r="E9">
         <v>5.372507747355662</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.6590082359709958</v>
+        <v>0.7360613980450912</v>
       </c>
       <c r="D10">
-        <v>0.5099808460330277</v>
+        <v>0.4694694395843062</v>
       </c>
       <c r="E10">
         <v>5.372507747355662</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.6001935795860941</v>
+        <v>0.6578989152028353</v>
       </c>
       <c r="D11">
-        <v>0.5484582285232458</v>
+        <v>0.5174286420002172</v>
       </c>
       <c r="E11">
         <v>5.364056331171799</v>
